--- a/manuscript/PeerJ/Table1.xlsx
+++ b/manuscript/PeerJ/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Papers\Marxan_vs_ILP_paper\manuscript\PeerJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918DC91E-9FDC-45CE-BE67-E2EDD7D03092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C8FC9-7A58-4B55-BA55-CCF5D64E1D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="19185" windowHeight="11505" xr2:uid="{2BC51914-F5C0-4EA2-B6F2-A3D3D586D815}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BC51914-F5C0-4EA2-B6F2-A3D3D586D815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Parameter</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>2,700 (SA)</t>
+  </si>
+  <si>
+    <t>Scenarios investigated in our analysis</t>
+  </si>
+  <si>
+    <t>The total number of scenarios tested for both Gurobi and SYMPHONY are 135. For Marxan</t>
+  </si>
+  <si>
+    <t>analysis, we included calibration steps as well, which brought the total number of scenarios</t>
+  </si>
+  <si>
+    <t>to 2700 for that algorithm.</t>
   </si>
 </sst>
 </file>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8880DFD-5191-49BA-8683-E4A448DB7A64}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +680,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
